--- a/Relazione/normalizzazione.xlsx
+++ b/Relazione/normalizzazione.xlsx
@@ -107,9 +107,6 @@
     <t>PERMESSI_UTENTE</t>
   </si>
   <si>
-    <t>idRuolo</t>
-  </si>
-  <si>
     <t>idUtente</t>
   </si>
   <si>
@@ -168,6 +165,9 @@
   </si>
   <si>
     <t>numeroCivico</t>
+  </si>
+  <si>
+    <t>idPermesso</t>
   </si>
 </sst>
 </file>
@@ -352,18 +352,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -374,11 +362,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -390,16 +390,16 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6878,145 +6878,145 @@
   </sheetPr>
   <dimension ref="A1:N106"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A30" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+    </row>
+    <row r="2" spans="1:14" s="4" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-    </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="13"/>
+      <c r="G2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="I2" s="20"/>
+      <c r="J2" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="18"/>
-      <c r="J2" s="19" t="s">
+      <c r="K2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="L2" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="M2" s="10" t="s">
+      <c r="M2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="11"/>
+      <c r="N2" s="7"/>
     </row>
     <row r="3" spans="1:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:14" s="8" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="12" t="s">
+    <row r="4" spans="1:14" s="4" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3" t="s">
+      <c r="H4" s="13"/>
+      <c r="I4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3" t="s">
+      <c r="J4" s="13"/>
+      <c r="K4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="5"/>
+      <c r="L4" s="14"/>
     </row>
     <row r="5" spans="1:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:14" s="2" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
     </row>
     <row r="8" spans="1:14" s="1" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="4" t="s">
+      <c r="D8" s="13"/>
+      <c r="E8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3" t="s">
+      <c r="G8" s="13"/>
+      <c r="H8" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3" t="s">
+      <c r="I8" s="13"/>
+      <c r="J8" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="K8" s="5"/>
+      <c r="K8" s="14"/>
     </row>
     <row r="9" spans="1:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
     </row>
     <row r="12" spans="1:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="15" t="s">
@@ -7027,68 +7027,68 @@
         <v>9</v>
       </c>
       <c r="E12" s="16"/>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3" t="s">
+      <c r="G12" s="13"/>
+      <c r="H12" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I12" s="5"/>
+      <c r="I12" s="14"/>
     </row>
     <row r="13" spans="1:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="14" spans="1:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="15" spans="1:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
     </row>
     <row r="16" spans="1:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3" t="s">
+      <c r="G16" s="13"/>
+      <c r="H16" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="5"/>
+      <c r="I16" s="14"/>
     </row>
     <row r="17" spans="2:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="2:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="19" spans="2:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
     </row>
     <row r="20" spans="2:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="15" t="s">
@@ -7099,338 +7099,338 @@
         <v>8</v>
       </c>
       <c r="E20" s="16"/>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3" t="s">
+      <c r="G20" s="13"/>
+      <c r="H20" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I20" s="5"/>
+      <c r="I20" s="14"/>
     </row>
     <row r="21" spans="2:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="22" spans="2:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="2:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
     </row>
-    <row r="24" spans="2:14" s="8" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="14" t="s">
+    <row r="24" spans="2:14" s="4" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C24" s="17" t="s">
         <v>17</v>
       </c>
       <c r="D24" s="17"/>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="4" t="s">
+      <c r="F24" s="13"/>
+      <c r="G24" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H24" s="4" t="s">
+      <c r="H24" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="I24" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3" t="s">
+      <c r="J24" s="13"/>
+      <c r="K24" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3" t="s">
+      <c r="L24" s="13"/>
+      <c r="M24" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="N24" s="5"/>
+      <c r="N24" s="14"/>
     </row>
     <row r="25" spans="2:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="26" spans="2:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="27" spans="2:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
     </row>
-    <row r="28" spans="2:14" s="9" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="20" t="s">
+    <row r="28" spans="2:14" s="5" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21" t="s">
+      <c r="C28" s="19"/>
+      <c r="D28" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="21"/>
-      <c r="F28" s="4" t="s">
+      <c r="E28" s="19"/>
+      <c r="F28" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="G28" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="H28" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3" t="s">
+      <c r="I28" s="13"/>
+      <c r="J28" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="K28" s="5"/>
+      <c r="K28" s="14"/>
     </row>
     <row r="29" spans="2:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="30" spans="2:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="31" spans="2:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
     </row>
-    <row r="32" spans="2:14" s="8" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="14" t="s">
+    <row r="32" spans="2:14" s="4" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3" t="s">
+      <c r="E32" s="13"/>
+      <c r="F32" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3" t="s">
+      <c r="G32" s="13"/>
+      <c r="H32" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3" t="s">
+      <c r="I32" s="13"/>
+      <c r="J32" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="K32" s="5"/>
+      <c r="K32" s="14"/>
     </row>
     <row r="33" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" spans="2:13" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
     </row>
     <row r="36" spans="2:13" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3" t="s">
+      <c r="E36" s="13"/>
+      <c r="F36" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3" t="s">
+      <c r="G36" s="13"/>
+      <c r="H36" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I36" s="5"/>
+      <c r="I36" s="14"/>
     </row>
     <row r="37" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="38" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="39" spans="2:13" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
     </row>
     <row r="40" spans="2:13" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="14" t="s">
+      <c r="B40" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="D40" s="17"/>
       <c r="E40" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F40" s="17"/>
-      <c r="G40" s="3" t="s">
+      <c r="G40" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3" t="s">
+      <c r="H40" s="13"/>
+      <c r="I40" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="J40" s="5"/>
+      <c r="J40" s="14"/>
     </row>
     <row r="41" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="42" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="43" spans="2:13" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="7"/>
+      <c r="B43" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
     </row>
-    <row r="44" spans="2:13" s="8" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="14" t="s">
+    <row r="44" spans="2:13" s="4" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C44" s="17" t="s">
         <v>17</v>
       </c>
       <c r="D44" s="17"/>
-      <c r="E44" s="3" t="s">
+      <c r="E44" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3" t="s">
+      <c r="F44" s="13"/>
+      <c r="G44" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="H44" s="3"/>
-      <c r="I44" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J44" s="3" t="s">
+      <c r="H44" s="13"/>
+      <c r="I44" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J44" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3" t="s">
+      <c r="K44" s="13"/>
+      <c r="L44" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="M44" s="5"/>
+      <c r="M44" s="14"/>
     </row>
     <row r="45" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="46" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="47" spans="2:13" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="7"/>
+      <c r="B47" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12"/>
     </row>
     <row r="48" spans="2:13" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="14" t="s">
+      <c r="B48" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C48" s="17" t="s">
         <v>17</v>
       </c>
       <c r="D48" s="17"/>
-      <c r="E48" s="3" t="s">
+      <c r="E48" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3" t="s">
+      <c r="F48" s="13"/>
+      <c r="G48" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H48" s="13"/>
+      <c r="I48" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3" t="s">
+      <c r="J48" s="13"/>
+      <c r="K48" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="L48" s="5"/>
+      <c r="L48" s="14"/>
     </row>
     <row r="49" spans="2:11" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="50" spans="2:11" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="51" spans="2:11" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="7"/>
-      <c r="J51" s="7"/>
-      <c r="K51" s="7"/>
+      <c r="B51" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="12"/>
+      <c r="K51" s="12"/>
     </row>
     <row r="52" spans="2:11" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B52" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C52" s="16"/>
       <c r="D52" s="16" t="s">
         <v>9</v>
       </c>
       <c r="E52" s="16"/>
-      <c r="F52" s="3" t="s">
+      <c r="F52" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3" t="s">
+      <c r="G52" s="13"/>
+      <c r="H52" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I52" s="5"/>
+      <c r="I52" s="14"/>
     </row>
     <row r="53" spans="2:11" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="54" spans="2:11" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G54" s="13"/>
-      <c r="H54" s="13"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
     </row>
     <row r="55" spans="2:11" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="56" spans="2:11" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7497,6 +7497,16 @@
     <mergeCell ref="D52:E52"/>
     <mergeCell ref="F52:G52"/>
     <mergeCell ref="H52:I52"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="B35:K35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="B39:K39"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
     <mergeCell ref="B1:K1"/>
     <mergeCell ref="L44:M44"/>
     <mergeCell ref="B47:K47"/>
@@ -7513,16 +7523,6 @@
     <mergeCell ref="C44:D44"/>
     <mergeCell ref="E44:F44"/>
     <mergeCell ref="G44:H44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="B35:K35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="B39:K39"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
     <mergeCell ref="M24:N24"/>
     <mergeCell ref="B27:K27"/>
     <mergeCell ref="B31:K31"/>
@@ -7542,17 +7542,17 @@
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="H20:I20"/>
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="B15:K15"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
     <mergeCell ref="B11:K11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="H12:I12"/>
-    <mergeCell ref="B15:K15"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="B7:K7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="54" fitToHeight="2" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Relazione/normalizzazione.xlsx
+++ b/Relazione/normalizzazione.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="880" windowWidth="36480" windowHeight="22880" xr2:uid="{BDFE7E85-4550-374A-B61E-33AFACDC1E5D}"/>
+    <workbookView xWindow="1920" yWindow="440" windowWidth="36480" windowHeight="21160" xr2:uid="{BDFE7E85-4550-374A-B61E-33AFACDC1E5D}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -101,12 +101,6 @@
     <t xml:space="preserve">nome </t>
   </si>
   <si>
-    <t>PERMESSI</t>
-  </si>
-  <si>
-    <t>PERMESSI_UTENTE</t>
-  </si>
-  <si>
     <t>idUtente</t>
   </si>
   <si>
@@ -168,6 +162,12 @@
   </si>
   <si>
     <t>idPermesso</t>
+  </si>
+  <si>
+    <t>PERMESSO</t>
+  </si>
+  <si>
+    <t>PERMESSO_UTENTE</t>
   </si>
 </sst>
 </file>
@@ -369,17 +369,20 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -396,11 +399,8 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6879,24 +6879,24 @@
   <dimension ref="A1:N106"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A30" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
+      <c r="B1" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
     </row>
     <row r="2" spans="1:14" s="4" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
@@ -6906,27 +6906,27 @@
         <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="11"/>
+      <c r="G2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="H2" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="3" t="s">
+      <c r="I2" s="12"/>
+      <c r="J2" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="K2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="20"/>
-      <c r="J2" s="10" t="s">
+      <c r="L2" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="M2" s="6" t="s">
         <v>19</v>
@@ -6936,28 +6936,28 @@
     <row r="3" spans="1:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:14" s="4" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="G4" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13" t="s">
+      <c r="H4" s="11"/>
+      <c r="I4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13" t="s">
+      <c r="J4" s="11"/>
+      <c r="K4" s="11" t="s">
         <v>7</v>
       </c>
       <c r="L4" s="14"/>
@@ -6965,39 +6965,39 @@
     <row r="5" spans="1:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:14" s="2" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
     </row>
     <row r="8" spans="1:14" s="1" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="13"/>
+      <c r="D8" s="11"/>
       <c r="E8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13" t="s">
+      <c r="G8" s="11"/>
+      <c r="H8" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13" t="s">
+      <c r="I8" s="11"/>
+      <c r="J8" s="11" t="s">
         <v>7</v>
       </c>
       <c r="K8" s="14"/>
@@ -7005,33 +7005,33 @@
     <row r="9" spans="1:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
     </row>
     <row r="12" spans="1:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16" t="s">
+      <c r="C12" s="17"/>
+      <c r="D12" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="13" t="s">
+      <c r="E12" s="17"/>
+      <c r="F12" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13" t="s">
+      <c r="G12" s="11"/>
+      <c r="H12" s="11" t="s">
         <v>7</v>
       </c>
       <c r="I12" s="14"/>
@@ -7039,18 +7039,18 @@
     <row r="13" spans="1:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="14" spans="1:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="15" spans="1:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
     </row>
     <row r="16" spans="1:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="s">
@@ -7065,11 +7065,11 @@
       <c r="E16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13" t="s">
+      <c r="G16" s="11"/>
+      <c r="H16" s="11" t="s">
         <v>7</v>
       </c>
       <c r="I16" s="14"/>
@@ -7077,33 +7077,33 @@
     <row r="17" spans="2:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="2:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="19" spans="2:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
     </row>
     <row r="20" spans="2:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16" t="s">
+      <c r="C20" s="17"/>
+      <c r="D20" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="16"/>
-      <c r="F20" s="13" t="s">
+      <c r="E20" s="17"/>
+      <c r="F20" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13" t="s">
+      <c r="G20" s="11"/>
+      <c r="H20" s="11" t="s">
         <v>7</v>
       </c>
       <c r="I20" s="14"/>
@@ -7111,46 +7111,46 @@
     <row r="21" spans="2:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="22" spans="2:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="2:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
     </row>
     <row r="24" spans="2:14" s="4" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="17"/>
-      <c r="E24" s="13" t="s">
+      <c r="D24" s="18"/>
+      <c r="E24" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F24" s="13"/>
+      <c r="F24" s="11"/>
       <c r="G24" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I24" s="13" t="s">
+      <c r="I24" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13" t="s">
+      <c r="J24" s="11"/>
+      <c r="K24" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13" t="s">
+      <c r="L24" s="11"/>
+      <c r="M24" s="11" t="s">
         <v>7</v>
       </c>
       <c r="N24" s="14"/>
@@ -7158,39 +7158,39 @@
     <row r="25" spans="2:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="26" spans="2:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="27" spans="2:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
     </row>
     <row r="28" spans="2:14" s="5" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19" t="s">
+      <c r="C28" s="20"/>
+      <c r="D28" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="19"/>
+      <c r="E28" s="20"/>
       <c r="F28" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H28" s="13" t="s">
+      <c r="H28" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13" t="s">
+      <c r="I28" s="11"/>
+      <c r="J28" s="11" t="s">
         <v>7</v>
       </c>
       <c r="K28" s="14"/>
@@ -7198,18 +7198,18 @@
     <row r="29" spans="2:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="30" spans="2:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="31" spans="2:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
     </row>
     <row r="32" spans="2:14" s="4" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="9" t="s">
@@ -7218,19 +7218,19 @@
       <c r="C32" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="D32" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13" t="s">
+      <c r="E32" s="11"/>
+      <c r="F32" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13" t="s">
+      <c r="G32" s="11"/>
+      <c r="H32" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13" t="s">
+      <c r="I32" s="11"/>
+      <c r="J32" s="11" t="s">
         <v>7</v>
       </c>
       <c r="K32" s="14"/>
@@ -7238,18 +7238,18 @@
     <row r="33" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" spans="2:13" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
+      <c r="B35" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
     </row>
     <row r="36" spans="2:13" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B36" s="9" t="s">
@@ -7258,15 +7258,15 @@
       <c r="C36" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="D36" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13" t="s">
+      <c r="E36" s="11"/>
+      <c r="F36" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13" t="s">
+      <c r="G36" s="11"/>
+      <c r="H36" s="11" t="s">
         <v>7</v>
       </c>
       <c r="I36" s="14"/>
@@ -7274,36 +7274,36 @@
     <row r="37" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="38" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="39" spans="2:13" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
+      <c r="B39" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="15"/>
     </row>
     <row r="40" spans="2:13" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B40" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C40" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="F40" s="17"/>
-      <c r="G40" s="13" t="s">
+      <c r="C40" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F40" s="18"/>
+      <c r="G40" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13" t="s">
+      <c r="H40" s="11"/>
+      <c r="I40" s="11" t="s">
         <v>7</v>
       </c>
       <c r="J40" s="14"/>
@@ -7311,43 +7311,43 @@
     <row r="41" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="42" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="43" spans="2:13" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="12"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="12"/>
+      <c r="B43" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="15"/>
+      <c r="K43" s="15"/>
     </row>
     <row r="44" spans="2:13" s="4" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B44" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C44" s="17" t="s">
+      <c r="C44" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D44" s="17"/>
-      <c r="E44" s="13" t="s">
+      <c r="D44" s="18"/>
+      <c r="E44" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13" t="s">
+      <c r="F44" s="11"/>
+      <c r="G44" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="H44" s="13"/>
+      <c r="H44" s="11"/>
       <c r="I44" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J44" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J44" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="K44" s="13"/>
-      <c r="L44" s="13" t="s">
+      <c r="K44" s="11"/>
+      <c r="L44" s="11" t="s">
         <v>7</v>
       </c>
       <c r="M44" s="14"/>
@@ -7355,40 +7355,40 @@
     <row r="45" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="46" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="47" spans="2:13" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="12"/>
-      <c r="I47" s="12"/>
-      <c r="J47" s="12"/>
-      <c r="K47" s="12"/>
+      <c r="B47" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="15"/>
+      <c r="K47" s="15"/>
     </row>
     <row r="48" spans="2:13" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B48" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="C48" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D48" s="17"/>
-      <c r="E48" s="13" t="s">
+      <c r="D48" s="18"/>
+      <c r="E48" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H48" s="13"/>
-      <c r="I48" s="13" t="s">
+      <c r="F48" s="11"/>
+      <c r="G48" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J48" s="13"/>
-      <c r="K48" s="13" t="s">
+      <c r="J48" s="11"/>
+      <c r="K48" s="11" t="s">
         <v>7</v>
       </c>
       <c r="L48" s="14"/>
@@ -7396,33 +7396,33 @@
     <row r="49" spans="2:11" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="50" spans="2:11" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="51" spans="2:11" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="12"/>
-      <c r="I51" s="12"/>
-      <c r="J51" s="12"/>
-      <c r="K51" s="12"/>
+      <c r="B51" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="15"/>
+      <c r="K51" s="15"/>
     </row>
     <row r="52" spans="2:11" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C52" s="16"/>
-      <c r="D52" s="16" t="s">
+      <c r="B52" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E52" s="16"/>
-      <c r="F52" s="13" t="s">
+      <c r="E52" s="17"/>
+      <c r="F52" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G52" s="13"/>
-      <c r="H52" s="13" t="s">
+      <c r="G52" s="11"/>
+      <c r="H52" s="11" t="s">
         <v>7</v>
       </c>
       <c r="I52" s="14"/>
@@ -7486,11 +7486,52 @@
     <row r="106" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="B15:K15"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="B11:K11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="B19:K19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="B23:K23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="B27:K27"/>
+    <mergeCell ref="B31:K31"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="B47:K47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="B43:K43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="G44:H44"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="B51:K51"/>
     <mergeCell ref="B52:C52"/>
@@ -7507,52 +7548,11 @@
     <mergeCell ref="F32:G32"/>
     <mergeCell ref="H32:I32"/>
     <mergeCell ref="J32:K32"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="B47:K47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="B43:K43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="B27:K27"/>
-    <mergeCell ref="B31:K31"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B23:K23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="B19:K19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="B7:K7"/>
-    <mergeCell ref="B15:K15"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="B11:K11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="54" fitToHeight="2" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Relazione/normalizzazione.xlsx
+++ b/Relazione/normalizzazione.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="440" windowWidth="36480" windowHeight="21160" xr2:uid="{BDFE7E85-4550-374A-B61E-33AFACDC1E5D}"/>
+    <workbookView xWindow="1260" yWindow="1920" windowWidth="36480" windowHeight="21160" xr2:uid="{BDFE7E85-4550-374A-B61E-33AFACDC1E5D}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="49">
   <si>
     <t>FARMACO</t>
   </si>
@@ -169,6 +169,9 @@
   <si>
     <t>PERMESSO_UTENTE</t>
   </si>
+  <si>
+    <t>idSala</t>
+  </si>
 </sst>
 </file>
 
@@ -251,7 +254,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -337,11 +340,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -372,10 +414,31 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1812,14 +1875,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>2823</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>2824</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>351366</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>2823</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>2824</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>237066</xdr:rowOff>
     </xdr:to>
@@ -1836,8 +1899,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4955823" y="5120922"/>
-          <a:ext cx="0" cy="252588"/>
+          <a:off x="10777771" y="8806892"/>
+          <a:ext cx="0" cy="253332"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1868,13 +1931,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>7057</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>355599</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>7057</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>241299</xdr:rowOff>
@@ -1892,8 +1955,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6611057" y="5125155"/>
-          <a:ext cx="0" cy="252588"/>
+          <a:off x="12439689" y="8811125"/>
+          <a:ext cx="0" cy="253332"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1924,14 +1987,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>2824</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>2825</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>351367</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>2824</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>2825</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>237067</xdr:rowOff>
     </xdr:to>
@@ -1948,8 +2011,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7432324" y="6588478"/>
-          <a:ext cx="0" cy="252589"/>
+          <a:off x="9120088" y="8806893"/>
+          <a:ext cx="0" cy="253332"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1980,14 +2043,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>423333</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>423334</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>352777</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>423333</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>423334</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>238477</xdr:rowOff>
     </xdr:to>
@@ -2004,8 +2067,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6201833" y="6589888"/>
-          <a:ext cx="0" cy="252589"/>
+          <a:off x="7882913" y="8808303"/>
+          <a:ext cx="0" cy="253332"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2036,14 +2099,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>420510</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>420511</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>349954</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>420510</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>420511</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>235654</xdr:rowOff>
     </xdr:to>
@@ -2060,8 +2123,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5373510" y="6587065"/>
-          <a:ext cx="0" cy="252589"/>
+          <a:off x="7051248" y="8805480"/>
+          <a:ext cx="0" cy="253332"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2092,14 +2155,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>352777</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>238477</xdr:rowOff>
     </xdr:to>
@@ -2116,8 +2179,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4127500" y="6589888"/>
-          <a:ext cx="0" cy="252589"/>
+          <a:off x="5801896" y="8808303"/>
+          <a:ext cx="0" cy="253332"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2265,8 +2328,8 @@
       <xdr:rowOff>226354</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>11442</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>13368</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>226354</xdr:rowOff>
     </xdr:to>
@@ -2283,8 +2346,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1223128" y="6816624"/>
-          <a:ext cx="9497503" cy="0"/>
+          <a:off x="1228186" y="9049512"/>
+          <a:ext cx="11217814" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3428,13 +3491,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>2823</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>351366</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>2823</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>237066</xdr:rowOff>
@@ -3484,13 +3547,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>7057</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>355599</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>7057</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>241299</xdr:rowOff>
@@ -3540,13 +3603,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>7057</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>355599</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>7057</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>241299</xdr:rowOff>
@@ -3596,69 +3659,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>12347</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>345015</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>12347</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>230715</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="91" name="Connettore 2 90">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5D53CF0-BCAD-B844-9FB0-096EB93B805D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2488847" y="12394140"/>
-          <a:ext cx="0" cy="250825"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>16581</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>349248</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>16581</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>234948</xdr:rowOff>
@@ -3709,15 +3716,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>429227</xdr:colOff>
+      <xdr:colOff>794352</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>364297</xdr:rowOff>
+      <xdr:rowOff>356359</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>429227</xdr:colOff>
+      <xdr:colOff>794352</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>227009</xdr:rowOff>
+      <xdr:rowOff>219071</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3732,7 +3739,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1254727" y="12413422"/>
+          <a:off x="1619852" y="14596234"/>
           <a:ext cx="0" cy="227837"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -3764,12 +3771,12 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>423862</xdr:colOff>
+      <xdr:colOff>782053</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>231405</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>23813</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>231405</xdr:rowOff>
@@ -3787,8 +3794,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1249362" y="12645655"/>
-          <a:ext cx="6203951" cy="0"/>
+          <a:off x="1610895" y="14936668"/>
+          <a:ext cx="5043655" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -6554,6 +6561,62 @@
             <a:schemeClr val="tx1"/>
           </a:solidFill>
           <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>25401</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>351440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>25401</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>237140</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="116" name="Connettore 2 115">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{847C03A3-E135-7744-A09D-71B08DC70ABE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4169612" y="8806966"/>
+          <a:ext cx="0" cy="253332"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -6876,27 +6939,27 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N106"/>
+  <dimension ref="A1:P106"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A30" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScale="177" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24:P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
     </row>
     <row r="2" spans="1:14" s="4" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
@@ -6908,17 +6971,17 @@
       <c r="D2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="11"/>
+      <c r="F2" s="19"/>
       <c r="G2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="12"/>
+      <c r="I2" s="20"/>
       <c r="J2" s="10" t="s">
         <v>37</v>
       </c>
@@ -6936,10 +6999,10 @@
     <row r="3" spans="1:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:14" s="4" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="11"/>
+      <c r="C4" s="19"/>
       <c r="D4" s="3" t="s">
         <v>41</v>
       </c>
@@ -6949,108 +7012,108 @@
       <c r="F4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11" t="s">
+      <c r="H4" s="19"/>
+      <c r="I4" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11" t="s">
+      <c r="J4" s="19"/>
+      <c r="K4" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="14"/>
+      <c r="L4" s="21"/>
     </row>
     <row r="5" spans="1:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:14" s="2" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:14" s="1" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="11"/>
+      <c r="D8" s="19"/>
       <c r="E8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11" t="s">
+      <c r="G8" s="19"/>
+      <c r="H8" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11" t="s">
+      <c r="I8" s="19"/>
+      <c r="J8" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="K8" s="14"/>
+      <c r="K8" s="21"/>
     </row>
     <row r="9" spans="1:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
     </row>
     <row r="12" spans="1:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17" t="s">
+      <c r="C12" s="24"/>
+      <c r="D12" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="11" t="s">
+      <c r="E12" s="24"/>
+      <c r="F12" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11" t="s">
+      <c r="G12" s="19"/>
+      <c r="H12" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I12" s="14"/>
+      <c r="I12" s="21"/>
     </row>
     <row r="13" spans="1:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="14" spans="1:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="15" spans="1:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
     </row>
     <row r="16" spans="1:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="s">
@@ -7065,191 +7128,195 @@
       <c r="E16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11" t="s">
+      <c r="G16" s="19"/>
+      <c r="H16" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="14"/>
+      <c r="I16" s="21"/>
     </row>
-    <row r="17" spans="2:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" spans="2:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="2:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="15" t="s">
+    <row r="17" spans="2:16" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="2:16" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="2:16" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
     </row>
-    <row r="20" spans="2:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="16" t="s">
+    <row r="20" spans="2:16" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17" t="s">
+      <c r="C20" s="24"/>
+      <c r="D20" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="17"/>
-      <c r="F20" s="11" t="s">
+      <c r="E20" s="24"/>
+      <c r="F20" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11" t="s">
+      <c r="G20" s="19"/>
+      <c r="H20" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I20" s="14"/>
+      <c r="I20" s="21"/>
     </row>
-    <row r="21" spans="2:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="2:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="2:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="15" t="s">
+    <row r="21" spans="2:16" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="2:16" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="2:16" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
     </row>
-    <row r="24" spans="2:14" s="4" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="9" t="s">
+    <row r="24" spans="2:16" s="4" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="18"/>
-      <c r="E24" s="11" t="s">
+      <c r="D24" s="15"/>
+      <c r="E24" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="F24" s="14"/>
+      <c r="G24" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F24" s="11"/>
-      <c r="G24" s="3" t="s">
+      <c r="H24" s="19"/>
+      <c r="I24" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="J24" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="I24" s="11" t="s">
+      <c r="K24" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11" t="s">
+      <c r="L24" s="17"/>
+      <c r="M24" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11" t="s">
+      <c r="N24" s="17"/>
+      <c r="O24" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="N24" s="14"/>
+      <c r="P24" s="18"/>
     </row>
-    <row r="25" spans="2:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="2:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="2:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="15" t="s">
+    <row r="25" spans="2:16" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="2:16" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="2:16" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
     </row>
-    <row r="28" spans="2:14" s="5" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="19" t="s">
+    <row r="28" spans="2:16" s="5" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20" t="s">
+      <c r="C28" s="27"/>
+      <c r="D28" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="20"/>
+      <c r="E28" s="27"/>
       <c r="F28" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H28" s="11" t="s">
+      <c r="H28" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11" t="s">
+      <c r="I28" s="19"/>
+      <c r="J28" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="K28" s="14"/>
+      <c r="K28" s="21"/>
     </row>
-    <row r="29" spans="2:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="2:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="2:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="15" t="s">
+    <row r="29" spans="2:16" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="2:16" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="2:16" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
     </row>
-    <row r="32" spans="2:14" s="4" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:16" s="4" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11" t="s">
+      <c r="E32" s="19"/>
+      <c r="F32" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11" t="s">
+      <c r="G32" s="19"/>
+      <c r="H32" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11" t="s">
+      <c r="I32" s="19"/>
+      <c r="J32" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="K32" s="14"/>
+      <c r="K32" s="21"/>
     </row>
     <row r="33" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" spans="2:13" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="15"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="22"/>
     </row>
     <row r="36" spans="2:13" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B36" s="9" t="s">
@@ -7258,174 +7325,171 @@
       <c r="C36" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D36" s="11" t="s">
+      <c r="D36" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11" t="s">
+      <c r="E36" s="19"/>
+      <c r="F36" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11" t="s">
+      <c r="G36" s="19"/>
+      <c r="H36" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I36" s="14"/>
+      <c r="I36" s="21"/>
     </row>
     <row r="37" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="38" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="39" spans="2:13" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="15" t="s">
+      <c r="B39" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="15"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="22"/>
     </row>
     <row r="40" spans="2:13" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C40" s="18" t="s">
+      <c r="B40" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18" t="s">
+      <c r="C40" s="14"/>
+      <c r="D40" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F40" s="18"/>
-      <c r="G40" s="11" t="s">
+      <c r="E40" s="14"/>
+      <c r="F40" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11" t="s">
+      <c r="G40" s="17"/>
+      <c r="H40" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="J40" s="14"/>
+      <c r="I40" s="18"/>
     </row>
     <row r="41" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="42" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="43" spans="2:13" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="15"/>
-      <c r="K43" s="15"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="22"/>
     </row>
     <row r="44" spans="2:13" s="4" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B44" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C44" s="18" t="s">
+      <c r="C44" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D44" s="18"/>
-      <c r="E44" s="11" t="s">
+      <c r="D44" s="25"/>
+      <c r="E44" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11" t="s">
+      <c r="F44" s="19"/>
+      <c r="G44" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="H44" s="11"/>
+      <c r="H44" s="19"/>
       <c r="I44" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J44" s="11" t="s">
+      <c r="J44" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K44" s="11"/>
-      <c r="L44" s="11" t="s">
+      <c r="K44" s="19"/>
+      <c r="L44" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="M44" s="14"/>
+      <c r="M44" s="21"/>
     </row>
     <row r="45" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="46" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="47" spans="2:13" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="15" t="s">
+      <c r="B47" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="15"/>
-      <c r="K47" s="15"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="22"/>
+      <c r="K47" s="22"/>
     </row>
     <row r="48" spans="2:13" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B48" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C48" s="18" t="s">
+      <c r="C48" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D48" s="18"/>
-      <c r="E48" s="11" t="s">
+      <c r="D48" s="25"/>
+      <c r="E48" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11" t="s">
+      <c r="F48" s="19"/>
+      <c r="G48" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="H48" s="11"/>
-      <c r="I48" s="11" t="s">
+      <c r="H48" s="19"/>
+      <c r="I48" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="J48" s="11"/>
-      <c r="K48" s="11" t="s">
+      <c r="J48" s="19"/>
+      <c r="K48" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="L48" s="14"/>
+      <c r="L48" s="21"/>
     </row>
     <row r="49" spans="2:11" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="50" spans="2:11" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="51" spans="2:11" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="15" t="s">
+      <c r="B51" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C51" s="15"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="15"/>
-      <c r="F51" s="15"/>
-      <c r="G51" s="15"/>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="15"/>
-      <c r="K51" s="15"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="22"/>
+      <c r="I51" s="22"/>
+      <c r="J51" s="22"/>
+      <c r="K51" s="22"/>
     </row>
     <row r="52" spans="2:11" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="16" t="s">
+      <c r="B52" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C52" s="17"/>
-      <c r="D52" s="17" t="s">
+      <c r="C52" s="24"/>
+      <c r="D52" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="E52" s="17"/>
-      <c r="F52" s="11" t="s">
+      <c r="E52" s="24"/>
+      <c r="F52" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G52" s="11"/>
-      <c r="H52" s="11" t="s">
+      <c r="G52" s="19"/>
+      <c r="H52" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I52" s="14"/>
+      <c r="I52" s="21"/>
     </row>
     <row r="53" spans="2:11" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="54" spans="2:11" ht="29" customHeight="1" x14ac:dyDescent="0.2">
@@ -7485,7 +7549,8 @@
     <row r="105" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="106" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="67">
+  <mergeCells count="68">
+    <mergeCell ref="O24:P24"/>
     <mergeCell ref="B7:K7"/>
     <mergeCell ref="B15:K15"/>
     <mergeCell ref="C8:D8"/>
@@ -7497,6 +7562,7 @@
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="H12:I12"/>
+    <mergeCell ref="E24:F24"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="H16:I16"/>
     <mergeCell ref="B19:K19"/>
@@ -7504,18 +7570,7 @@
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="H20:I20"/>
-    <mergeCell ref="B23:K23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="B27:K27"/>
-    <mergeCell ref="B31:K31"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="G24:H24"/>
     <mergeCell ref="B1:K1"/>
     <mergeCell ref="L44:M44"/>
     <mergeCell ref="B47:K47"/>
@@ -7524,14 +7579,14 @@
     <mergeCell ref="G48:H48"/>
     <mergeCell ref="I48:J48"/>
     <mergeCell ref="K48:L48"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
     <mergeCell ref="B43:K43"/>
     <mergeCell ref="C44:D44"/>
     <mergeCell ref="E44:F44"/>
     <mergeCell ref="G44:H44"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="B27:K27"/>
+    <mergeCell ref="B31:K31"/>
+    <mergeCell ref="B28:C28"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="B51:K51"/>
     <mergeCell ref="B52:C52"/>
@@ -7548,11 +7603,21 @@
     <mergeCell ref="F32:G32"/>
     <mergeCell ref="H32:I32"/>
     <mergeCell ref="J32:K32"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H40:I40"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="I4:J4"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B23:K23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="C24:D24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="54" fitToHeight="2" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Relazione/normalizzazione.xlsx
+++ b/Relazione/normalizzazione.xlsx
@@ -383,7 +383,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -417,40 +417,37 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -462,8 +459,17 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6941,25 +6947,25 @@
   </sheetPr>
   <dimension ref="A1:P106"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScale="177" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24:P24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A32" zoomScale="177" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
     </row>
     <row r="2" spans="1:14" s="4" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
@@ -6971,17 +6977,17 @@
       <c r="D2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="19"/>
+      <c r="F2" s="17"/>
       <c r="G2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="20"/>
+      <c r="I2" s="27"/>
       <c r="J2" s="10" t="s">
         <v>37</v>
       </c>
@@ -6999,10 +7005,10 @@
     <row r="3" spans="1:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:14" s="4" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="19"/>
+      <c r="C4" s="17"/>
       <c r="D4" s="3" t="s">
         <v>41</v>
       </c>
@@ -7012,108 +7018,108 @@
       <c r="F4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19" t="s">
+      <c r="H4" s="17"/>
+      <c r="I4" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19" t="s">
+      <c r="J4" s="17"/>
+      <c r="K4" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="21"/>
+      <c r="L4" s="18"/>
     </row>
     <row r="5" spans="1:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:14" s="2" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:14" s="1" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="19"/>
+      <c r="D8" s="17"/>
       <c r="E8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19" t="s">
+      <c r="G8" s="17"/>
+      <c r="H8" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19" t="s">
+      <c r="I8" s="17"/>
+      <c r="J8" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="K8" s="21"/>
+      <c r="K8" s="18"/>
     </row>
     <row r="9" spans="1:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
     </row>
     <row r="12" spans="1:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24" t="s">
+      <c r="C12" s="20"/>
+      <c r="D12" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="24"/>
-      <c r="F12" s="19" t="s">
+      <c r="E12" s="20"/>
+      <c r="F12" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19" t="s">
+      <c r="G12" s="17"/>
+      <c r="H12" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I12" s="21"/>
+      <c r="I12" s="18"/>
     </row>
     <row r="13" spans="1:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="14" spans="1:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="15" spans="1:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
     </row>
     <row r="16" spans="1:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="s">
@@ -7128,155 +7134,155 @@
       <c r="E16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="19" t="s">
+      <c r="F16" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19" t="s">
+      <c r="G16" s="17"/>
+      <c r="H16" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="21"/>
+      <c r="I16" s="18"/>
     </row>
     <row r="17" spans="2:16" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="2:16" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="19" spans="2:16" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
     </row>
     <row r="20" spans="2:16" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24" t="s">
+      <c r="C20" s="20"/>
+      <c r="D20" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="24"/>
-      <c r="F20" s="19" t="s">
+      <c r="E20" s="20"/>
+      <c r="F20" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19" t="s">
+      <c r="G20" s="17"/>
+      <c r="H20" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I20" s="21"/>
+      <c r="I20" s="18"/>
     </row>
     <row r="21" spans="2:16" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="22" spans="2:16" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="2:16" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
     </row>
     <row r="24" spans="2:16" s="4" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15" t="s">
+      <c r="D24" s="21"/>
+      <c r="E24" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="F24" s="14"/>
-      <c r="G24" s="17" t="s">
+      <c r="F24" s="22"/>
+      <c r="G24" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="H24" s="19"/>
+      <c r="H24" s="17"/>
       <c r="I24" s="11" t="s">
         <v>11</v>
       </c>
       <c r="J24" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="K24" s="16" t="s">
+      <c r="K24" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="L24" s="17"/>
-      <c r="M24" s="16" t="s">
+      <c r="L24" s="23"/>
+      <c r="M24" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="N24" s="17"/>
-      <c r="O24" s="16" t="s">
+      <c r="N24" s="23"/>
+      <c r="O24" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="P24" s="18"/>
+      <c r="P24" s="14"/>
     </row>
     <row r="25" spans="2:16" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="26" spans="2:16" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="27" spans="2:16" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
     </row>
     <row r="28" spans="2:16" s="5" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="26" t="s">
+      <c r="B28" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27" t="s">
+      <c r="C28" s="26"/>
+      <c r="D28" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="27"/>
+      <c r="E28" s="26"/>
       <c r="F28" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H28" s="19" t="s">
+      <c r="H28" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19" t="s">
+      <c r="I28" s="17"/>
+      <c r="J28" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="K28" s="21"/>
+      <c r="K28" s="18"/>
     </row>
     <row r="29" spans="2:16" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="30" spans="2:16" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="31" spans="2:16" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="22" t="s">
+      <c r="B31" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="22"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
     </row>
     <row r="32" spans="2:16" s="4" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="9" t="s">
@@ -7285,38 +7291,38 @@
       <c r="C32" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D32" s="19" t="s">
+      <c r="D32" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19" t="s">
+      <c r="E32" s="17"/>
+      <c r="F32" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19" t="s">
+      <c r="G32" s="17"/>
+      <c r="H32" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19" t="s">
+      <c r="I32" s="17"/>
+      <c r="J32" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="K32" s="21"/>
+      <c r="K32" s="18"/>
     </row>
     <row r="33" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" spans="2:13" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="22" t="s">
+      <c r="B35" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="22"/>
-      <c r="J35" s="22"/>
-      <c r="K35" s="22"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
     </row>
     <row r="36" spans="2:13" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B36" s="9" t="s">
@@ -7325,171 +7331,171 @@
       <c r="C36" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D36" s="19" t="s">
+      <c r="D36" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19" t="s">
+      <c r="E36" s="17"/>
+      <c r="F36" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19" t="s">
+      <c r="G36" s="17"/>
+      <c r="H36" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I36" s="21"/>
+      <c r="I36" s="18"/>
     </row>
     <row r="37" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="38" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="39" spans="2:13" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="22" t="s">
+      <c r="B39" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="22"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="22"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
     </row>
     <row r="40" spans="2:13" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="14"/>
-      <c r="D40" s="15" t="s">
+      <c r="C40" s="29"/>
+      <c r="D40" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="E40" s="14"/>
-      <c r="F40" s="16" t="s">
+      <c r="E40" s="29"/>
+      <c r="F40" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G40" s="17"/>
-      <c r="H40" s="16" t="s">
+      <c r="G40" s="23"/>
+      <c r="H40" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I40" s="18"/>
+      <c r="I40" s="14"/>
     </row>
     <row r="41" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="42" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="43" spans="2:13" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="22" t="s">
+      <c r="B43" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="22"/>
-      <c r="I43" s="22"/>
-      <c r="J43" s="22"/>
-      <c r="K43" s="22"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="16"/>
     </row>
     <row r="44" spans="2:13" s="4" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B44" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C44" s="25" t="s">
+      <c r="C44" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D44" s="25"/>
-      <c r="E44" s="19" t="s">
+      <c r="D44" s="24"/>
+      <c r="E44" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19" t="s">
+      <c r="F44" s="17"/>
+      <c r="G44" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="H44" s="19"/>
+      <c r="H44" s="17"/>
       <c r="I44" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J44" s="19" t="s">
+      <c r="J44" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="K44" s="19"/>
-      <c r="L44" s="19" t="s">
+      <c r="K44" s="17"/>
+      <c r="L44" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="M44" s="21"/>
+      <c r="M44" s="18"/>
     </row>
     <row r="45" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="46" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="47" spans="2:13" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="22" t="s">
+      <c r="B47" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="22"/>
-      <c r="J47" s="22"/>
-      <c r="K47" s="22"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
+      <c r="J47" s="16"/>
+      <c r="K47" s="16"/>
     </row>
     <row r="48" spans="2:13" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B48" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C48" s="25" t="s">
+      <c r="C48" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D48" s="25"/>
-      <c r="E48" s="19" t="s">
+      <c r="D48" s="24"/>
+      <c r="E48" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F48" s="19"/>
-      <c r="G48" s="19" t="s">
+      <c r="F48" s="17"/>
+      <c r="G48" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19" t="s">
+      <c r="H48" s="17"/>
+      <c r="I48" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="J48" s="19"/>
-      <c r="K48" s="19" t="s">
+      <c r="J48" s="17"/>
+      <c r="K48" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="L48" s="21"/>
+      <c r="L48" s="18"/>
     </row>
     <row r="49" spans="2:11" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="50" spans="2:11" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="51" spans="2:11" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="22" t="s">
+      <c r="B51" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C51" s="22"/>
-      <c r="D51" s="22"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="22"/>
-      <c r="G51" s="22"/>
-      <c r="H51" s="22"/>
-      <c r="I51" s="22"/>
-      <c r="J51" s="22"/>
-      <c r="K51" s="22"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="16"/>
+      <c r="I51" s="16"/>
+      <c r="J51" s="16"/>
+      <c r="K51" s="16"/>
     </row>
     <row r="52" spans="2:11" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="23" t="s">
+      <c r="B52" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C52" s="24"/>
-      <c r="D52" s="24" t="s">
+      <c r="C52" s="20"/>
+      <c r="D52" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E52" s="24"/>
-      <c r="F52" s="19" t="s">
+      <c r="E52" s="20"/>
+      <c r="F52" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="G52" s="19"/>
-      <c r="H52" s="19" t="s">
+      <c r="G52" s="17"/>
+      <c r="H52" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I52" s="21"/>
+      <c r="I52" s="18"/>
     </row>
     <row r="53" spans="2:11" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="54" spans="2:11" ht="29" customHeight="1" x14ac:dyDescent="0.2">
@@ -7550,6 +7556,58 @@
     <row r="106" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="68">
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B23:K23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="B51:K51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="B35:K35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="B39:K39"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="B47:K47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="B43:K43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="B27:K27"/>
+    <mergeCell ref="B31:K31"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="G24:H24"/>
     <mergeCell ref="O24:P24"/>
     <mergeCell ref="B7:K7"/>
     <mergeCell ref="B15:K15"/>
@@ -7566,58 +7624,6 @@
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="H16:I16"/>
     <mergeCell ref="B19:K19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="B47:K47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="B43:K43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="B27:K27"/>
-    <mergeCell ref="B31:K31"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="B51:K51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="B35:K35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="B39:K39"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B23:K23"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="C24:D24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="54" fitToHeight="2" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Relazione/normalizzazione.xlsx
+++ b/Relazione/normalizzazione.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="1920" windowWidth="36480" windowHeight="21160" xr2:uid="{BDFE7E85-4550-374A-B61E-33AFACDC1E5D}"/>
+    <workbookView xWindow="1420" yWindow="1000" windowWidth="36480" windowHeight="21160" xr2:uid="{BDFE7E85-4550-374A-B61E-33AFACDC1E5D}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -417,22 +417,43 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -441,34 +462,13 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3634,62 +3634,6 @@
       <xdr:spPr>
         <a:xfrm flipV="1">
           <a:off x="6611057" y="10944224"/>
-          <a:ext cx="0" cy="250825"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>16581</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>349248</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>16581</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>234948</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="92" name="Connettore 2 91">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF8A60CD-91AC-5A48-A0DE-C069B57E9F0E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4144081" y="12398373"/>
           <a:ext cx="0" cy="250825"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -6623,6 +6567,61 @@
             <a:schemeClr val="tx1"/>
           </a:solidFill>
           <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>34146</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>9172</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>34146</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>237816</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="114" name="Connettore 1 113">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B489C602-A1E5-8B43-B579-738E7A721342}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3334711" y="14646460"/>
+          <a:ext cx="0" cy="228644"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -6948,24 +6947,24 @@
   <dimension ref="A1:P106"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A32" zoomScale="177" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
     </row>
     <row r="2" spans="1:14" s="4" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
@@ -6977,17 +6976,17 @@
       <c r="D2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="17"/>
+      <c r="F2" s="19"/>
       <c r="G2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="H2" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="27"/>
+      <c r="I2" s="20"/>
       <c r="J2" s="10" t="s">
         <v>37</v>
       </c>
@@ -7005,10 +7004,10 @@
     <row r="3" spans="1:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:14" s="4" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="17"/>
+      <c r="C4" s="19"/>
       <c r="D4" s="3" t="s">
         <v>41</v>
       </c>
@@ -7018,108 +7017,108 @@
       <c r="F4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17" t="s">
+      <c r="H4" s="19"/>
+      <c r="I4" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17" t="s">
+      <c r="J4" s="19"/>
+      <c r="K4" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="18"/>
+      <c r="L4" s="21"/>
     </row>
     <row r="5" spans="1:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:14" s="2" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
     </row>
     <row r="8" spans="1:14" s="1" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="17"/>
+      <c r="D8" s="19"/>
       <c r="E8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17" t="s">
+      <c r="G8" s="19"/>
+      <c r="H8" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17" t="s">
+      <c r="I8" s="19"/>
+      <c r="J8" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="K8" s="18"/>
+      <c r="K8" s="21"/>
     </row>
     <row r="9" spans="1:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
     </row>
     <row r="12" spans="1:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20" t="s">
+      <c r="C12" s="27"/>
+      <c r="D12" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="20"/>
-      <c r="F12" s="17" t="s">
+      <c r="E12" s="27"/>
+      <c r="F12" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17" t="s">
+      <c r="G12" s="19"/>
+      <c r="H12" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I12" s="18"/>
+      <c r="I12" s="21"/>
     </row>
     <row r="13" spans="1:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="14" spans="1:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="15" spans="1:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
     </row>
     <row r="16" spans="1:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="s">
@@ -7134,64 +7133,64 @@
       <c r="E16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="17" t="s">
+      <c r="F16" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17" t="s">
+      <c r="G16" s="19"/>
+      <c r="H16" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="18"/>
+      <c r="I16" s="21"/>
     </row>
     <row r="17" spans="2:16" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="2:16" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="19" spans="2:16" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
     </row>
     <row r="20" spans="2:16" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20" t="s">
+      <c r="C20" s="27"/>
+      <c r="D20" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="20"/>
-      <c r="F20" s="17" t="s">
+      <c r="E20" s="27"/>
+      <c r="F20" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17" t="s">
+      <c r="G20" s="19"/>
+      <c r="H20" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I20" s="18"/>
+      <c r="I20" s="21"/>
     </row>
     <row r="21" spans="2:16" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="22" spans="2:16" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="2:16" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
     </row>
     <row r="24" spans="2:16" s="4" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="12" t="s">
@@ -7200,89 +7199,89 @@
       <c r="C24" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21" t="s">
+      <c r="D24" s="25"/>
+      <c r="E24" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="F24" s="22"/>
-      <c r="G24" s="23" t="s">
+      <c r="F24" s="30"/>
+      <c r="G24" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H24" s="17"/>
+      <c r="H24" s="19"/>
       <c r="I24" s="11" t="s">
         <v>11</v>
       </c>
       <c r="J24" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="K24" s="13" t="s">
+      <c r="K24" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="L24" s="23"/>
-      <c r="M24" s="13" t="s">
+      <c r="L24" s="17"/>
+      <c r="M24" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="N24" s="23"/>
-      <c r="O24" s="13" t="s">
+      <c r="N24" s="17"/>
+      <c r="O24" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="P24" s="14"/>
+      <c r="P24" s="18"/>
     </row>
     <row r="25" spans="2:16" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="26" spans="2:16" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="27" spans="2:16" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
     </row>
     <row r="28" spans="2:16" s="5" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26" t="s">
+      <c r="C28" s="22"/>
+      <c r="D28" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="26"/>
+      <c r="E28" s="22"/>
       <c r="F28" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H28" s="17" t="s">
+      <c r="H28" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17" t="s">
+      <c r="I28" s="19"/>
+      <c r="J28" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="K28" s="18"/>
+      <c r="K28" s="21"/>
     </row>
     <row r="29" spans="2:16" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="30" spans="2:16" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="31" spans="2:16" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
     </row>
     <row r="32" spans="2:16" s="4" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="9" t="s">
@@ -7291,38 +7290,38 @@
       <c r="C32" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D32" s="17" t="s">
+      <c r="D32" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17" t="s">
+      <c r="E32" s="19"/>
+      <c r="F32" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17" t="s">
+      <c r="G32" s="19"/>
+      <c r="H32" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17" t="s">
+      <c r="I32" s="19"/>
+      <c r="J32" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="K32" s="18"/>
+      <c r="K32" s="21"/>
     </row>
     <row r="33" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" spans="2:13" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="23"/>
     </row>
     <row r="36" spans="2:13" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B36" s="9" t="s">
@@ -7331,68 +7330,68 @@
       <c r="C36" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D36" s="17" t="s">
+      <c r="D36" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17" t="s">
+      <c r="E36" s="19"/>
+      <c r="F36" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17" t="s">
+      <c r="G36" s="19"/>
+      <c r="H36" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I36" s="18"/>
+      <c r="I36" s="21"/>
     </row>
     <row r="37" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="38" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="39" spans="2:13" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="16" t="s">
+      <c r="B39" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="16"/>
-      <c r="K39" s="16"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="23"/>
+      <c r="K39" s="23"/>
     </row>
     <row r="40" spans="2:13" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="28" t="s">
+      <c r="B40" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="29"/>
-      <c r="D40" s="30" t="s">
+      <c r="C40" s="14"/>
+      <c r="D40" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E40" s="29"/>
-      <c r="F40" s="13" t="s">
+      <c r="E40" s="14"/>
+      <c r="F40" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G40" s="23"/>
-      <c r="H40" s="13" t="s">
+      <c r="G40" s="17"/>
+      <c r="H40" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I40" s="14"/>
+      <c r="I40" s="18"/>
     </row>
     <row r="41" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="42" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="43" spans="2:13" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="16" t="s">
+      <c r="B43" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="16"/>
-      <c r="J43" s="16"/>
-      <c r="K43" s="16"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="23"/>
+      <c r="K43" s="23"/>
     </row>
     <row r="44" spans="2:13" s="4" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B44" s="9" t="s">
@@ -7402,41 +7401,41 @@
         <v>17</v>
       </c>
       <c r="D44" s="24"/>
-      <c r="E44" s="17" t="s">
+      <c r="E44" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17" t="s">
+      <c r="F44" s="19"/>
+      <c r="G44" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="H44" s="17"/>
+      <c r="H44" s="19"/>
       <c r="I44" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J44" s="17" t="s">
+      <c r="J44" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K44" s="17"/>
-      <c r="L44" s="17" t="s">
+      <c r="K44" s="19"/>
+      <c r="L44" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="M44" s="18"/>
+      <c r="M44" s="21"/>
     </row>
     <row r="45" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="46" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="47" spans="2:13" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="16"/>
-      <c r="I47" s="16"/>
-      <c r="J47" s="16"/>
-      <c r="K47" s="16"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="23"/>
+      <c r="I47" s="23"/>
+      <c r="J47" s="23"/>
+      <c r="K47" s="23"/>
     </row>
     <row r="48" spans="2:13" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B48" s="9" t="s">
@@ -7446,56 +7445,56 @@
         <v>17</v>
       </c>
       <c r="D48" s="24"/>
-      <c r="E48" s="17" t="s">
+      <c r="E48" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F48" s="17"/>
-      <c r="G48" s="17" t="s">
+      <c r="F48" s="19"/>
+      <c r="G48" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="H48" s="17"/>
-      <c r="I48" s="17" t="s">
+      <c r="H48" s="19"/>
+      <c r="I48" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="J48" s="17"/>
-      <c r="K48" s="17" t="s">
+      <c r="J48" s="19"/>
+      <c r="K48" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="L48" s="18"/>
+      <c r="L48" s="21"/>
     </row>
     <row r="49" spans="2:11" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="50" spans="2:11" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="51" spans="2:11" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="16" t="s">
+      <c r="B51" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="C51" s="16"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="16"/>
-      <c r="F51" s="16"/>
-      <c r="G51" s="16"/>
-      <c r="H51" s="16"/>
-      <c r="I51" s="16"/>
-      <c r="J51" s="16"/>
-      <c r="K51" s="16"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="23"/>
+      <c r="H51" s="23"/>
+      <c r="I51" s="23"/>
+      <c r="J51" s="23"/>
+      <c r="K51" s="23"/>
     </row>
     <row r="52" spans="2:11" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="19" t="s">
+      <c r="B52" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="C52" s="20"/>
-      <c r="D52" s="20" t="s">
+      <c r="C52" s="27"/>
+      <c r="D52" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="E52" s="20"/>
-      <c r="F52" s="17" t="s">
+      <c r="E52" s="27"/>
+      <c r="F52" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G52" s="17"/>
-      <c r="H52" s="17" t="s">
+      <c r="G52" s="19"/>
+      <c r="H52" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I52" s="18"/>
+      <c r="I52" s="21"/>
     </row>
     <row r="53" spans="2:11" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="54" spans="2:11" ht="29" customHeight="1" x14ac:dyDescent="0.2">
@@ -7556,6 +7555,58 @@
     <row r="106" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="68">
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="B15:K15"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="B11:K11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="B19:K19"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="B27:K27"/>
+    <mergeCell ref="B31:K31"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="B47:K47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="B35:K35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="B39:K39"/>
+    <mergeCell ref="B43:K43"/>
+    <mergeCell ref="B51:K51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="H52:I52"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="D40:E40"/>
     <mergeCell ref="F40:G40"/>
@@ -7572,58 +7623,6 @@
     <mergeCell ref="K24:L24"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="K4:L4"/>
-    <mergeCell ref="B51:K51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="B35:K35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="B39:K39"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="B47:K47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="B43:K43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="B27:K27"/>
-    <mergeCell ref="B31:K31"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="B7:K7"/>
-    <mergeCell ref="B15:K15"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="B11:K11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="B19:K19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="54" fitToHeight="2" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Relazione/normalizzazione.xlsx
+++ b/Relazione/normalizzazione.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abertagnon/Documents/Università/Magistrale/ANNO_1/BasiDiDati/progettoBasiDiDati/Relazione/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B2FABA-3DA4-134E-9235-0F5EAF3A7C06}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1420" yWindow="1000" windowWidth="36480" windowHeight="21160" xr2:uid="{BDFE7E85-4550-374A-B61E-33AFACDC1E5D}"/>
   </bookViews>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="52">
   <si>
     <t>FARMACO</t>
   </si>
@@ -161,16 +162,25 @@
     <t>numeroCivico</t>
   </si>
   <si>
-    <t>idPermesso</t>
+    <t>idSala</t>
   </si>
   <si>
-    <t>PERMESSO</t>
+    <t xml:space="preserve">data </t>
   </si>
   <si>
-    <t>PERMESSO_UTENTE</t>
+    <t xml:space="preserve">ora </t>
   </si>
   <si>
-    <t>idSala</t>
+    <t>durata</t>
+  </si>
+  <si>
+    <t>RUOLO</t>
+  </si>
+  <si>
+    <t>RUOLO_UTENTE</t>
+  </si>
+  <si>
+    <t>idRuolo</t>
   </si>
 </sst>
 </file>
@@ -254,7 +264,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -379,11 +389,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -411,10 +467,52 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -426,49 +524,17 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1881,16 +1947,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>2824</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>351366</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>2824</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>237066</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>416954</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>356888</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>416954</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>242588</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1905,8 +1971,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="10777771" y="8806892"/>
-          <a:ext cx="0" cy="253332"/>
+          <a:off x="2901737" y="9605801"/>
+          <a:ext cx="0" cy="255657"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1937,15 +2003,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>7057</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>355599</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>7057</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>241299</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1993,15 +2059,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>2825</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>351367</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>2825</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>237067</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2049,13 +2115,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>423334</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>352777</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>423334</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>238477</xdr:rowOff>
@@ -2105,13 +2171,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>420511</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>349954</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>420511</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>235654</xdr:rowOff>
@@ -2161,13 +2227,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>352777</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>238477</xdr:rowOff>
@@ -2334,8 +2400,8 @@
       <xdr:rowOff>226354</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>13368</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>753390</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>226354</xdr:rowOff>
     </xdr:to>
@@ -2352,8 +2418,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1228186" y="9049512"/>
-          <a:ext cx="11217814" cy="0"/>
+          <a:off x="1224485" y="9008727"/>
+          <a:ext cx="8605459" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2385,13 +2451,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>2823</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>351366</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>2823</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>237066</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2441,13 +2507,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>7057</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>355599</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>7057</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>241299</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2497,13 +2563,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>5491</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>369787</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>5491</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>225091</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2552,13 +2618,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>422036</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>352242</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>422036</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>237942</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2608,13 +2674,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>408535</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>355903</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>408535</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>241603</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2664,13 +2730,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>230015</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>16934</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>230015</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2719,13 +2785,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>2823</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>351366</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>2823</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>237066</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2775,13 +2841,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>7057</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>355599</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>7057</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>241299</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2831,13 +2897,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>4411</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>352953</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>4411</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>238653</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2887,13 +2953,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>821973</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>352953</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>821973</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>238653</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2943,13 +3009,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>402873</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>354541</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>402873</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>240241</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2999,13 +3065,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>396875</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>236165</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>15875</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>236165</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3054,13 +3120,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>410178</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>3934</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>410178</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>231771</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3109,13 +3175,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>2823</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>351366</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>2823</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>237066</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3165,13 +3231,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>7057</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>355599</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>7057</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>241299</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3221,13 +3287,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>821973</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>352953</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>821973</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>238653</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3277,13 +3343,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>402873</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>354541</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>402873</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>240241</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3333,13 +3399,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>7057</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>355599</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>7057</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>241299</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3389,13 +3455,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>419702</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>362709</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>419702</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>225421</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3444,13 +3510,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>414337</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>229816</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>23813</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>229816</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3499,13 +3565,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>2823</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>351366</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>2823</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>237066</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3555,13 +3621,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>7057</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>355599</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>7057</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>241299</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3611,13 +3677,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>7057</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>355599</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>7057</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>241299</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3667,13 +3733,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>794352</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>356359</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>794352</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>219071</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3722,13 +3788,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>782053</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>231405</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>23813</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>231405</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3777,13 +3843,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>2823</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>351366</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>2823</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>237066</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3833,13 +3899,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>7057</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>355599</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>7057</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>241299</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3889,13 +3955,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>7057</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>355599</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>7057</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>241299</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3945,13 +4011,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>821972</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>345015</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>821972</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>230715</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4001,13 +4067,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>706</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>349248</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>706</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>234948</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4057,13 +4123,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2293</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>350836</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2293</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>236536</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4113,13 +4179,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>412750</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>349250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>412750</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>234950</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4169,13 +4235,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>414939</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>357947</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>414939</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>220659</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4224,13 +4290,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>402166</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>224526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>16405</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>224526</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4279,13 +4345,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>821972</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>345015</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>821972</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>230715</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4335,13 +4401,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>706</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>349248</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>706</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>234948</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4391,13 +4457,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>414939</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>357947</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>414939</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>220659</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4446,13 +4512,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>2823</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>351366</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>2823</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>237066</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4502,13 +4568,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>7057</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>355599</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>7057</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>241299</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4558,13 +4624,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>821973</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>352952</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>821973</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>238652</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4614,13 +4680,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>395287</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>226644</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>23813</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>226644</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4669,13 +4735,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>2823</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>351366</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>2823</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>237066</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4725,13 +4791,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>15524</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>355599</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>15524</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>241299</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4781,13 +4847,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2822</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>357009</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2822</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>218721</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4836,13 +4902,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>822677</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>357011</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>822677</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>218723</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4891,13 +4957,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>809624</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>228233</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>23813</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>228233</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6367,13 +6433,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2823</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>369710</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2823</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>231421</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6422,13 +6488,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>245534</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>270933</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>601133</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>270933</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6478,13 +6544,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>397934</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>262466</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>499534</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>262466</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6532,13 +6598,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>25401</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>351440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>25401</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>237140</xdr:rowOff>
@@ -6590,13 +6656,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>34146</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>9172</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>34146</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>237816</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6622,6 +6688,645 @@
           <a:solidFill>
             <a:schemeClr val="tx1"/>
           </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>796441</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>294182</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>136480</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>90981</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="115" name="Figura a mano libera 114">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8F45059-F3CE-D941-B276-ADD6679D8BC5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9872995" y="8344690"/>
+          <a:ext cx="165180" cy="528664"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 169772 w 169772"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 541867"/>
+            <a:gd name="connsiteX1" fmla="*/ 17372 w 169772"/>
+            <a:gd name="connsiteY1" fmla="*/ 101600 h 541867"/>
+            <a:gd name="connsiteX2" fmla="*/ 76638 w 169772"/>
+            <a:gd name="connsiteY2" fmla="*/ 262467 h 541867"/>
+            <a:gd name="connsiteX3" fmla="*/ 438 w 169772"/>
+            <a:gd name="connsiteY3" fmla="*/ 397934 h 541867"/>
+            <a:gd name="connsiteX4" fmla="*/ 118972 w 169772"/>
+            <a:gd name="connsiteY4" fmla="*/ 541867 h 541867"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX4" y="connsiteY4"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="169772" h="541867">
+              <a:moveTo>
+                <a:pt x="169772" y="0"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="101333" y="28928"/>
+                <a:pt x="32894" y="57856"/>
+                <a:pt x="17372" y="101600"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1850" y="145345"/>
+                <a:pt x="79460" y="213078"/>
+                <a:pt x="76638" y="262467"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="73816" y="311856"/>
+                <a:pt x="-6618" y="351367"/>
+                <a:pt x="438" y="397934"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="7494" y="444501"/>
+                <a:pt x="92161" y="503767"/>
+                <a:pt x="118972" y="541867"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="it-IT" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>668005</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>227893</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>253141</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>227893</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="118" name="Connettore 1 117">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85E6F80C-FEC6-BE4D-8A08-046D9BE8379A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9776445" y="9128053"/>
+          <a:ext cx="413176" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>810049</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>249602</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>21526</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>249602</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="120" name="Connettore 1 119">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{869715B8-EE60-ED4D-B63D-A3BBB348E5AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1635190" y="9763839"/>
+          <a:ext cx="5812607" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>694205</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>287130</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>34244</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>83931</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="127" name="Figura a mano libera 126">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1868928D-9333-CE42-B4B3-33154E4576B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="694205" y="9092463"/>
+          <a:ext cx="165539" cy="530579"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 169772 w 169772"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 541867"/>
+            <a:gd name="connsiteX1" fmla="*/ 17372 w 169772"/>
+            <a:gd name="connsiteY1" fmla="*/ 101600 h 541867"/>
+            <a:gd name="connsiteX2" fmla="*/ 76638 w 169772"/>
+            <a:gd name="connsiteY2" fmla="*/ 262467 h 541867"/>
+            <a:gd name="connsiteX3" fmla="*/ 438 w 169772"/>
+            <a:gd name="connsiteY3" fmla="*/ 397934 h 541867"/>
+            <a:gd name="connsiteX4" fmla="*/ 118972 w 169772"/>
+            <a:gd name="connsiteY4" fmla="*/ 541867 h 541867"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX4" y="connsiteY4"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="169772" h="541867">
+              <a:moveTo>
+                <a:pt x="169772" y="0"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="101333" y="28928"/>
+                <a:pt x="32894" y="57856"/>
+                <a:pt x="17372" y="101600"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1850" y="145345"/>
+                <a:pt x="79460" y="213078"/>
+                <a:pt x="76638" y="262467"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="73816" y="311856"/>
+                <a:pt x="-6618" y="351367"/>
+                <a:pt x="438" y="397934"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="7494" y="444501"/>
+                <a:pt x="92161" y="503767"/>
+                <a:pt x="118972" y="541867"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="it-IT" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>430696</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>248478</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>15831</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>248478</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="130" name="Connettore 1 129">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B7C1E5C-374B-D043-8EEF-F1A4DB99BDEE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1258957" y="9867348"/>
+          <a:ext cx="413396" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>414746</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>360201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>414746</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>245901</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="134" name="Connettore 2 133">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D580E50-0B73-EC44-859E-3E097441F4EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3727789" y="9609114"/>
+          <a:ext cx="0" cy="255657"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>423581</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>363514</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>423581</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>249214</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="136" name="Connettore 2 135">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7A1C1F0-D669-DC4F-9FAF-C85B7B8FCDBC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4564885" y="9612427"/>
+          <a:ext cx="0" cy="255657"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>255657</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="137" name="Connettore 2 136">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{282D616C-00B8-4E45-8164-D5113ACCE18C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5797826" y="9618870"/>
+          <a:ext cx="0" cy="255657"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>42112</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>336066</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>42112</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>221766</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="152" name="Connettore 2 151">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81145726-D025-764C-B980-0BF9014C61A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4169612" y="8806966"/>
+          <a:ext cx="0" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -6944,27 +7649,27 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P106"/>
+  <dimension ref="A1:N108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A32" zoomScale="177" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
     </row>
     <row r="2" spans="1:14" s="4" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
@@ -6983,10 +7688,10 @@
       <c r="G2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="20"/>
+      <c r="I2" s="30"/>
       <c r="J2" s="10" t="s">
         <v>37</v>
       </c>
@@ -7004,7 +7709,7 @@
     <row r="3" spans="1:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:14" s="4" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="23" t="s">
         <v>40</v>
       </c>
       <c r="C4" s="19"/>
@@ -7028,23 +7733,23 @@
       <c r="K4" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="21"/>
+      <c r="L4" s="20"/>
     </row>
     <row r="5" spans="1:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:14" s="2" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
     </row>
     <row r="8" spans="1:14" s="1" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
@@ -7068,33 +7773,33 @@
       <c r="J8" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="K8" s="21"/>
+      <c r="K8" s="20"/>
     </row>
     <row r="9" spans="1:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
     </row>
     <row r="12" spans="1:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27" t="s">
+      <c r="C12" s="22"/>
+      <c r="D12" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="27"/>
+      <c r="E12" s="22"/>
       <c r="F12" s="19" t="s">
         <v>6</v>
       </c>
@@ -7102,23 +7807,23 @@
       <c r="H12" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I12" s="21"/>
+      <c r="I12" s="20"/>
     </row>
     <row r="13" spans="1:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="14" spans="1:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="15" spans="1:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
     </row>
     <row r="16" spans="1:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="s">
@@ -7140,33 +7845,33 @@
       <c r="H16" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="21"/>
+      <c r="I16" s="20"/>
     </row>
-    <row r="17" spans="2:16" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" spans="2:16" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="2:16" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="23" t="s">
+    <row r="17" spans="2:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="2:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="2:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
     </row>
-    <row r="20" spans="2:16" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="26" t="s">
+    <row r="20" spans="2:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27" t="s">
+      <c r="C20" s="22"/>
+      <c r="D20" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="27"/>
+      <c r="E20" s="22"/>
       <c r="F20" s="19" t="s">
         <v>6</v>
       </c>
@@ -7174,343 +7879,359 @@
       <c r="H20" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I20" s="21"/>
+      <c r="I20" s="20"/>
     </row>
-    <row r="21" spans="2:16" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="2:16" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="2:16" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="23" t="s">
+    <row r="21" spans="2:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="2:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="2:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="32"/>
     </row>
-    <row r="24" spans="2:16" s="4" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="12" t="s">
+    <row r="24" spans="2:14" s="4" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25" t="s">
+      <c r="D24" s="26"/>
+      <c r="E24" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" s="26"/>
+      <c r="I24" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="J24" s="19"/>
+      <c r="K24" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="L24" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="N24"/>
+    </row>
+    <row r="25" spans="2:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="2:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="34"/>
+      <c r="D26" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F26" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="F24" s="30"/>
-      <c r="G24" s="17" t="s">
+      <c r="G26" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="J26" s="20"/>
+    </row>
+    <row r="27" spans="2:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="2:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="2:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+    </row>
+    <row r="30" spans="2:14" s="5" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="25"/>
+      <c r="F30" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="K30" s="20"/>
+    </row>
+    <row r="31" spans="2:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="2:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" spans="2:13" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+    </row>
+    <row r="34" spans="2:13" s="4" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="J24" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="L24" s="17"/>
-      <c r="M24" s="16" t="s">
+      <c r="E34" s="19"/>
+      <c r="F34" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="N24" s="17"/>
-      <c r="O24" s="16" t="s">
+      <c r="I34" s="19"/>
+      <c r="J34" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="P24" s="18"/>
+      <c r="K34" s="20"/>
     </row>
-    <row r="25" spans="2:16" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="2:16" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="2:16" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
+    <row r="35" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="2:13" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
     </row>
-    <row r="28" spans="2:16" s="5" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="28" t="s">
+    <row r="38" spans="2:13" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I38" s="20"/>
+    </row>
+    <row r="39" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="2:13" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="18"/>
+    </row>
+    <row r="42" spans="2:13" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C42" s="28"/>
+      <c r="D42" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="E42" s="28"/>
+      <c r="F42" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G42" s="23"/>
+      <c r="H42" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I42" s="16"/>
+    </row>
+    <row r="43" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="2:13" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="18"/>
+      <c r="J45" s="18"/>
+      <c r="K45" s="18"/>
+    </row>
+    <row r="46" spans="2:13" s="4" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C46" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" s="26"/>
+      <c r="E46" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="H46" s="19"/>
+      <c r="I46" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J46" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="K46" s="19"/>
+      <c r="L46" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="M46" s="20"/>
+    </row>
+    <row r="47" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" spans="2:12" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C49" s="18"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="18"/>
+      <c r="J49" s="18"/>
+      <c r="K49" s="18"/>
+    </row>
+    <row r="50" spans="2:12" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50" s="26"/>
+      <c r="E50" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F50" s="19"/>
+      <c r="G50" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="H50" s="19"/>
+      <c r="I50" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="J50" s="19"/>
+      <c r="K50" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="L50" s="20"/>
+    </row>
+    <row r="51" spans="2:12" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" spans="2:12" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" spans="2:12" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C53" s="18"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="18"/>
+      <c r="I53" s="18"/>
+      <c r="J53" s="18"/>
+      <c r="K53" s="18"/>
+    </row>
+    <row r="54" spans="2:12" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C54" s="22"/>
+      <c r="D54" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28" s="22"/>
-      <c r="F28" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H28" s="19" t="s">
+      <c r="E54" s="22"/>
+      <c r="F54" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19" t="s">
+      <c r="G54" s="19"/>
+      <c r="H54" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="K28" s="21"/>
+      <c r="I54" s="20"/>
     </row>
-    <row r="29" spans="2:16" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="2:16" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="2:16" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="23"/>
+    <row r="55" spans="2:12" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" spans="2:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
     </row>
-    <row r="32" spans="2:16" s="4" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D32" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="K32" s="21"/>
-    </row>
-    <row r="33" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" spans="2:13" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="23"/>
-    </row>
-    <row r="36" spans="2:13" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D36" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="I36" s="21"/>
-    </row>
-    <row r="37" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="2:13" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="23"/>
-      <c r="K39" s="23"/>
-    </row>
-    <row r="40" spans="2:13" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C40" s="14"/>
-      <c r="D40" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E40" s="14"/>
-      <c r="F40" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="G40" s="17"/>
-      <c r="H40" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="I40" s="18"/>
-    </row>
-    <row r="41" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="2:13" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C43" s="23"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="23"/>
-      <c r="J43" s="23"/>
-      <c r="K43" s="23"/>
-    </row>
-    <row r="44" spans="2:13" s="4" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C44" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D44" s="24"/>
-      <c r="E44" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="H44" s="19"/>
-      <c r="I44" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J44" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="K44" s="19"/>
-      <c r="L44" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="M44" s="21"/>
-    </row>
-    <row r="45" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="2:13" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C47" s="23"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="23"/>
-      <c r="I47" s="23"/>
-      <c r="J47" s="23"/>
-      <c r="K47" s="23"/>
-    </row>
-    <row r="48" spans="2:13" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C48" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D48" s="24"/>
-      <c r="E48" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="F48" s="19"/>
-      <c r="G48" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="J48" s="19"/>
-      <c r="K48" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="L48" s="21"/>
-    </row>
-    <row r="49" spans="2:11" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" spans="2:11" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" spans="2:11" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="C51" s="23"/>
-      <c r="D51" s="23"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="23"/>
-      <c r="G51" s="23"/>
-      <c r="H51" s="23"/>
-      <c r="I51" s="23"/>
-      <c r="J51" s="23"/>
-      <c r="K51" s="23"/>
-    </row>
-    <row r="52" spans="2:11" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="C52" s="27"/>
-      <c r="D52" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E52" s="27"/>
-      <c r="F52" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="G52" s="19"/>
-      <c r="H52" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="I52" s="21"/>
-    </row>
-    <row r="53" spans="2:11" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" spans="2:11" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
-    </row>
-    <row r="55" spans="2:11" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" spans="2:11" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" spans="2:11" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" spans="2:11" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" spans="2:11" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" spans="2:11" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" spans="2:11" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" spans="2:11" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" spans="2:11" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" spans="2:11" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" spans="2:12" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" spans="2:12" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" spans="2:12" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" spans="2:12" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" spans="2:12" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" spans="2:12" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="2:12" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="2:12" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="65" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="66" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="67" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7553,9 +8274,64 @@
     <row r="104" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="105" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="106" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="68">
-    <mergeCell ref="O24:P24"/>
+  <mergeCells count="69">
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B23:K23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="B45:K45"/>
+    <mergeCell ref="B53:K53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="B37:K37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="B41:K41"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="B49:K49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B29:K29"/>
+    <mergeCell ref="B33:K33"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
     <mergeCell ref="B7:K7"/>
     <mergeCell ref="B15:K15"/>
     <mergeCell ref="C8:D8"/>
@@ -7567,62 +8343,10 @@
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="H12:I12"/>
-    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="H16:I16"/>
     <mergeCell ref="B19:K19"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="B27:K27"/>
-    <mergeCell ref="B31:K31"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="B47:K47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="B35:K35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="B39:K39"/>
-    <mergeCell ref="B43:K43"/>
-    <mergeCell ref="B51:K51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B23:K23"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="54" fitToHeight="2" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Relazione/normalizzazione.xlsx
+++ b/Relazione/normalizzazione.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abertagnon/Documents/Università/Magistrale/ANNO_1/BasiDiDati/progettoBasiDiDati/Relazione/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B2FABA-3DA4-134E-9235-0F5EAF3A7C06}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A09E8BFC-AF33-834B-A519-BF95F297BCA3}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1420" yWindow="1000" windowWidth="36480" windowHeight="21160" xr2:uid="{BDFE7E85-4550-374A-B61E-33AFACDC1E5D}"/>
+    <workbookView xWindow="840" yWindow="4340" windowWidth="37560" windowHeight="17260" xr2:uid="{BDFE7E85-4550-374A-B61E-33AFACDC1E5D}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -264,7 +264,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -389,57 +389,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -482,34 +436,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -524,17 +454,37 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1948,13 +1898,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>416954</xdr:colOff>
+      <xdr:colOff>386716</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>356888</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>416954</xdr:colOff>
+      <xdr:colOff>386716</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>242588</xdr:rowOff>
     </xdr:to>
@@ -1971,8 +1921,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2901737" y="9605801"/>
-          <a:ext cx="0" cy="255657"/>
+          <a:off x="2872287" y="9579507"/>
+          <a:ext cx="0" cy="254605"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2003,14 +1953,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>7057</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>805343</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>355599</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>7057</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>805343</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>241299</xdr:rowOff>
     </xdr:to>
@@ -2027,8 +1977,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="12439689" y="8811125"/>
-          <a:ext cx="0" cy="253332"/>
+          <a:off x="7433533" y="9578218"/>
+          <a:ext cx="0" cy="254605"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2116,13 +2066,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>423334</xdr:colOff>
+      <xdr:colOff>393096</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>352777</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>423334</xdr:colOff>
+      <xdr:colOff>393096</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>238477</xdr:rowOff>
     </xdr:to>
@@ -2139,8 +2089,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7882913" y="8808303"/>
-          <a:ext cx="0" cy="253332"/>
+          <a:off x="9506858" y="8837587"/>
+          <a:ext cx="0" cy="254604"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2172,13 +2122,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>420511</xdr:colOff>
+      <xdr:colOff>390273</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>349954</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>420511</xdr:colOff>
+      <xdr:colOff>390273</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>235654</xdr:rowOff>
     </xdr:to>
@@ -2195,8 +2145,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7051248" y="8805480"/>
-          <a:ext cx="0" cy="253332"/>
+          <a:off x="8675511" y="8834764"/>
+          <a:ext cx="0" cy="254604"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2227,14 +2177,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>798287</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>352777</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>798287</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>238477</xdr:rowOff>
     </xdr:to>
@@ -2251,8 +2201,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5801896" y="8808303"/>
-          <a:ext cx="0" cy="253332"/>
+          <a:off x="7426477" y="8837587"/>
+          <a:ext cx="0" cy="254604"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2283,14 +2233,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>7055</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>805340</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>352778</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>7055</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>805340</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>238478</xdr:rowOff>
     </xdr:to>
@@ -2307,8 +2257,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2483555" y="6589889"/>
-          <a:ext cx="0" cy="252589"/>
+          <a:off x="2462388" y="8837588"/>
+          <a:ext cx="0" cy="254604"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2340,13 +2290,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>413456</xdr:colOff>
+      <xdr:colOff>383218</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>364066</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>413456</xdr:colOff>
+      <xdr:colOff>383218</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>225777</xdr:rowOff>
     </xdr:to>
@@ -2363,8 +2313,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1238956" y="6601177"/>
-          <a:ext cx="0" cy="228600"/>
+          <a:off x="1211742" y="8848876"/>
+          <a:ext cx="0" cy="230615"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2395,13 +2345,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>399344</xdr:colOff>
+      <xdr:colOff>369106</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>226354</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>753390</xdr:colOff>
+      <xdr:colOff>723152</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>226354</xdr:rowOff>
     </xdr:to>
@@ -2418,8 +2368,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1224485" y="9008727"/>
-          <a:ext cx="8605459" cy="0"/>
+          <a:off x="1197630" y="9080068"/>
+          <a:ext cx="8639284" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -6598,14 +6548,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>25401</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>823687</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>351440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>25401</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>823687</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>237140</xdr:rowOff>
     </xdr:to>
@@ -6622,8 +6572,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4169612" y="8806966"/>
-          <a:ext cx="0" cy="253332"/>
+          <a:off x="5794830" y="8836250"/>
+          <a:ext cx="0" cy="254604"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6834,13 +6784,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>668005</xdr:colOff>
+      <xdr:colOff>637767</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>227893</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>253141</xdr:colOff>
+      <xdr:colOff>222903</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>227893</xdr:rowOff>
     </xdr:to>
@@ -6857,8 +6807,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9776445" y="9128053"/>
-          <a:ext cx="413176" cy="0"/>
+          <a:off x="9751529" y="9081607"/>
+          <a:ext cx="413660" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -6890,13 +6840,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>810049</xdr:colOff>
+      <xdr:colOff>779811</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>249602</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>21526</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>819812</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>249602</xdr:rowOff>
     </xdr:to>
@@ -6913,8 +6863,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1635190" y="9763839"/>
-          <a:ext cx="5812607" cy="0"/>
+          <a:off x="1608335" y="9841126"/>
+          <a:ext cx="5839667" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -7125,13 +7075,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>414746</xdr:colOff>
+      <xdr:colOff>384508</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>360201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>414746</xdr:colOff>
+      <xdr:colOff>384508</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>245901</xdr:rowOff>
     </xdr:to>
@@ -7148,8 +7098,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3727789" y="9609114"/>
-          <a:ext cx="0" cy="255657"/>
+          <a:off x="3698603" y="9582820"/>
+          <a:ext cx="0" cy="254605"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -7181,13 +7131,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>423581</xdr:colOff>
+      <xdr:colOff>393343</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>363514</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>423581</xdr:colOff>
+      <xdr:colOff>393343</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>249214</xdr:rowOff>
     </xdr:to>
@@ -7204,8 +7154,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4564885" y="9612427"/>
-          <a:ext cx="0" cy="255657"/>
+          <a:off x="4535962" y="9586133"/>
+          <a:ext cx="0" cy="254605"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -7236,14 +7186,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>798286</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>798286</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>255657</xdr:rowOff>
     </xdr:to>
@@ -7260,7 +7210,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5797826" y="9618870"/>
+          <a:off x="5769429" y="9591524"/>
           <a:ext cx="0" cy="255657"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -7293,13 +7243,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>42112</xdr:colOff>
+      <xdr:colOff>11874</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>336066</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>42112</xdr:colOff>
+      <xdr:colOff>11874</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>221766</xdr:rowOff>
     </xdr:to>
@@ -7316,8 +7266,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4169612" y="8806966"/>
-          <a:ext cx="0" cy="254000"/>
+          <a:off x="4154493" y="8820876"/>
+          <a:ext cx="0" cy="254604"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -7651,25 +7601,25 @@
   </sheetPr>
   <dimension ref="A1:N108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
     </row>
     <row r="2" spans="1:14" s="4" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
@@ -7681,17 +7631,17 @@
       <c r="D2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="19"/>
+      <c r="F2" s="16"/>
       <c r="G2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="30" t="s">
+      <c r="H2" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="30"/>
+      <c r="I2" s="25"/>
       <c r="J2" s="10" t="s">
         <v>37</v>
       </c>
@@ -7712,7 +7662,7 @@
       <c r="B4" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="19"/>
+      <c r="C4" s="16"/>
       <c r="D4" s="3" t="s">
         <v>41</v>
       </c>
@@ -7722,108 +7672,108 @@
       <c r="F4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19" t="s">
+      <c r="H4" s="16"/>
+      <c r="I4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19" t="s">
+      <c r="J4" s="16"/>
+      <c r="K4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="20"/>
+      <c r="L4" s="17"/>
     </row>
     <row r="5" spans="1:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:14" s="2" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
     </row>
     <row r="8" spans="1:14" s="1" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="19"/>
+      <c r="D8" s="16"/>
       <c r="E8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19" t="s">
+      <c r="G8" s="16"/>
+      <c r="H8" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19" t="s">
+      <c r="I8" s="16"/>
+      <c r="J8" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="K8" s="20"/>
+      <c r="K8" s="17"/>
     </row>
     <row r="9" spans="1:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
     </row>
     <row r="12" spans="1:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22" t="s">
+      <c r="C12" s="29"/>
+      <c r="D12" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="22"/>
-      <c r="F12" s="19" t="s">
+      <c r="E12" s="29"/>
+      <c r="F12" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19" t="s">
+      <c r="G12" s="16"/>
+      <c r="H12" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I12" s="20"/>
+      <c r="I12" s="17"/>
     </row>
     <row r="13" spans="1:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="14" spans="1:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="15" spans="1:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
     </row>
     <row r="16" spans="1:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="s">
@@ -7838,100 +7788,100 @@
       <c r="E16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="19" t="s">
+      <c r="F16" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19" t="s">
+      <c r="G16" s="16"/>
+      <c r="H16" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="20"/>
+      <c r="I16" s="17"/>
     </row>
     <row r="17" spans="2:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="2:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="19" spans="2:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
     </row>
     <row r="20" spans="2:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22" t="s">
+      <c r="C20" s="29"/>
+      <c r="D20" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="22"/>
-      <c r="F20" s="19" t="s">
+      <c r="E20" s="29"/>
+      <c r="F20" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19" t="s">
+      <c r="G20" s="16"/>
+      <c r="H20" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I20" s="20"/>
+      <c r="I20" s="17"/>
     </row>
     <row r="21" spans="2:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="22" spans="2:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="2:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="32"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="8"/>
     </row>
     <row r="24" spans="2:14" s="4" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26" t="s">
+      <c r="D24" s="18"/>
+      <c r="E24" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26" t="s">
+      <c r="F24" s="18"/>
+      <c r="G24" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="H24" s="26"/>
-      <c r="I24" s="19" t="s">
+      <c r="H24" s="18"/>
+      <c r="I24" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="J24" s="19"/>
+      <c r="J24" s="16"/>
       <c r="K24" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="L24" s="31" t="s">
+      <c r="L24" s="15" t="s">
         <v>19</v>
       </c>
       <c r="N24"/>
     </row>
     <row r="25" spans="2:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="2:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="33" t="s">
+      <c r="B26" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="34"/>
+      <c r="C26" s="23"/>
       <c r="D26" s="12" t="s">
         <v>46</v>
       </c>
@@ -7941,70 +7891,70 @@
       <c r="F26" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="G26" s="19" t="s">
+      <c r="G26" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19" t="s">
+      <c r="H26" s="16"/>
+      <c r="I26" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="J26" s="20"/>
+      <c r="J26" s="17"/>
     </row>
     <row r="27" spans="2:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="28" spans="2:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="29" spans="2:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="18"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
     </row>
     <row r="30" spans="2:14" s="5" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="24" t="s">
+      <c r="B30" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25" t="s">
+      <c r="C30" s="26"/>
+      <c r="D30" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="25"/>
+      <c r="E30" s="26"/>
       <c r="F30" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H30" s="19" t="s">
+      <c r="H30" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19" t="s">
+      <c r="I30" s="16"/>
+      <c r="J30" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="K30" s="20"/>
+      <c r="K30" s="17"/>
     </row>
     <row r="31" spans="2:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="32" spans="2:14" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" spans="2:13" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="18"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="27"/>
     </row>
     <row r="34" spans="2:13" s="4" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B34" s="9" t="s">
@@ -8013,38 +7963,38 @@
       <c r="C34" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D34" s="19" t="s">
+      <c r="D34" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19" t="s">
+      <c r="E34" s="16"/>
+      <c r="F34" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19" t="s">
+      <c r="G34" s="16"/>
+      <c r="H34" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19" t="s">
+      <c r="I34" s="16"/>
+      <c r="J34" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="K34" s="20"/>
+      <c r="K34" s="17"/>
     </row>
     <row r="35" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="36" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="37" spans="2:13" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="18"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="27"/>
+      <c r="K37" s="27"/>
     </row>
     <row r="38" spans="2:13" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="9" t="s">
@@ -8053,171 +8003,171 @@
       <c r="C38" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D38" s="19" t="s">
+      <c r="D38" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19" t="s">
+      <c r="E38" s="16"/>
+      <c r="F38" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19" t="s">
+      <c r="G38" s="16"/>
+      <c r="H38" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I38" s="20"/>
+      <c r="I38" s="17"/>
     </row>
     <row r="39" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="40" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="41" spans="2:13" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="18" t="s">
+      <c r="B41" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="18"/>
-      <c r="I41" s="18"/>
-      <c r="J41" s="18"/>
-      <c r="K41" s="18"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="27"/>
+      <c r="K41" s="27"/>
     </row>
     <row r="42" spans="2:13" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="27" t="s">
+      <c r="B42" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C42" s="28"/>
-      <c r="D42" s="29" t="s">
+      <c r="C42" s="20"/>
+      <c r="D42" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="E42" s="28"/>
-      <c r="F42" s="15" t="s">
+      <c r="E42" s="20"/>
+      <c r="F42" s="22" t="s">
         <v>6</v>
       </c>
       <c r="G42" s="23"/>
-      <c r="H42" s="15" t="s">
+      <c r="H42" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="I42" s="16"/>
+      <c r="I42" s="24"/>
     </row>
     <row r="43" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="44" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="45" spans="2:13" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="18" t="s">
+      <c r="B45" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="18"/>
-      <c r="I45" s="18"/>
-      <c r="J45" s="18"/>
-      <c r="K45" s="18"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="27"/>
+      <c r="K45" s="27"/>
     </row>
     <row r="46" spans="2:13" s="4" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B46" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C46" s="26" t="s">
+      <c r="C46" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D46" s="26"/>
-      <c r="E46" s="19" t="s">
+      <c r="D46" s="18"/>
+      <c r="E46" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F46" s="19"/>
-      <c r="G46" s="19" t="s">
+      <c r="F46" s="16"/>
+      <c r="G46" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="H46" s="19"/>
+      <c r="H46" s="16"/>
       <c r="I46" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J46" s="19" t="s">
+      <c r="J46" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="K46" s="19"/>
-      <c r="L46" s="19" t="s">
+      <c r="K46" s="16"/>
+      <c r="L46" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="M46" s="20"/>
+      <c r="M46" s="17"/>
     </row>
     <row r="47" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="48" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="49" spans="2:12" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="18" t="s">
+      <c r="B49" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="18"/>
-      <c r="H49" s="18"/>
-      <c r="I49" s="18"/>
-      <c r="J49" s="18"/>
-      <c r="K49" s="18"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="27"/>
+      <c r="I49" s="27"/>
+      <c r="J49" s="27"/>
+      <c r="K49" s="27"/>
     </row>
     <row r="50" spans="2:12" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B50" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C50" s="26" t="s">
+      <c r="C50" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D50" s="26"/>
-      <c r="E50" s="19" t="s">
+      <c r="D50" s="18"/>
+      <c r="E50" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="F50" s="19"/>
-      <c r="G50" s="19" t="s">
+      <c r="F50" s="25"/>
+      <c r="G50" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19" t="s">
+      <c r="H50" s="16"/>
+      <c r="I50" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="J50" s="19"/>
-      <c r="K50" s="19" t="s">
+      <c r="J50" s="16"/>
+      <c r="K50" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L50" s="20"/>
+      <c r="L50" s="17"/>
     </row>
     <row r="51" spans="2:12" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="52" spans="2:12" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="53" spans="2:12" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="18" t="s">
+      <c r="B53" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="C53" s="18"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="18"/>
-      <c r="F53" s="18"/>
-      <c r="G53" s="18"/>
-      <c r="H53" s="18"/>
-      <c r="I53" s="18"/>
-      <c r="J53" s="18"/>
-      <c r="K53" s="18"/>
+      <c r="C53" s="27"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="27"/>
+      <c r="F53" s="27"/>
+      <c r="G53" s="27"/>
+      <c r="H53" s="27"/>
+      <c r="I53" s="27"/>
+      <c r="J53" s="27"/>
+      <c r="K53" s="27"/>
     </row>
     <row r="54" spans="2:12" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="21" t="s">
+      <c r="B54" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C54" s="22"/>
-      <c r="D54" s="22" t="s">
+      <c r="C54" s="29"/>
+      <c r="D54" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E54" s="22"/>
-      <c r="F54" s="19" t="s">
+      <c r="E54" s="29"/>
+      <c r="F54" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G54" s="19"/>
-      <c r="H54" s="19" t="s">
+      <c r="G54" s="16"/>
+      <c r="H54" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I54" s="20"/>
+      <c r="I54" s="17"/>
     </row>
     <row r="55" spans="2:12" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="56" spans="2:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
@@ -8278,39 +8228,19 @@
     <row r="108" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B23:K23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="B45:K45"/>
-    <mergeCell ref="B53:K53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="B37:K37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="B41:K41"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="B19:K19"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="B11:K11"/>
     <mergeCell ref="B1:K1"/>
     <mergeCell ref="I24:J24"/>
     <mergeCell ref="L46:M46"/>
@@ -8327,6 +8257,24 @@
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B29:K29"/>
     <mergeCell ref="B33:K33"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="B37:K37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="B41:K41"/>
+    <mergeCell ref="B23:K23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="B45:K45"/>
+    <mergeCell ref="B53:K53"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="D20:E20"/>
@@ -8334,22 +8282,24 @@
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="B7:K7"/>
     <mergeCell ref="B15:K15"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="B11:K11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="B19:K19"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="D30:E30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="54" fitToHeight="2" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" scale="50" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>